--- a/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_2_8.xlsx
+++ b/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_2_8.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9831973370996192</v>
+        <v>0.9784118741222514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9490274982211582</v>
+        <v>0.9981132030219909</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9684402243575031</v>
+        <v>0.9966477698062028</v>
       </c>
       <c r="E2" t="n">
-        <v>0.968087210928078</v>
+        <v>0.9976767746371612</v>
       </c>
       <c r="F2" t="n">
-        <v>2.026406148453035</v>
+        <v>2.603534408302417</v>
       </c>
       <c r="G2" t="n">
-        <v>4.054003916254427</v>
+        <v>0.2876527593526298</v>
       </c>
       <c r="H2" t="n">
-        <v>4.521755466008955</v>
+        <v>0.2580696232198201</v>
       </c>
       <c r="I2" t="n">
-        <v>4.27411939908064</v>
+        <v>0.2737310694935027</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9843509965164299</v>
+        <v>0.9820914312903619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9467455624401999</v>
+        <v>0.9984512621611872</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9698709016435112</v>
+        <v>0.9926154884046207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9680899874575365</v>
+        <v>0.9966685168192737</v>
       </c>
       <c r="F3" t="n">
-        <v>1.887274479305946</v>
+        <v>2.159778718311473</v>
       </c>
       <c r="G3" t="n">
-        <v>4.235493469833404</v>
+        <v>0.2361137515274295</v>
       </c>
       <c r="H3" t="n">
-        <v>4.316773880861339</v>
+        <v>0.5684926198111886</v>
       </c>
       <c r="I3" t="n">
-        <v>4.273747535048529</v>
+        <v>0.3925277627588912</v>
       </c>
     </row>
     <row r="4">
@@ -544,710 +544,710 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9852339753583511</v>
+        <v>0.9848122297208539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9443530017086793</v>
+        <v>0.9984335256785457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9710719978629314</v>
+        <v>0.9871721694005128</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9679424948261491</v>
+        <v>0.9949826800241519</v>
       </c>
       <c r="F4" t="n">
-        <v>1.78078696808041</v>
+        <v>1.831649617529162</v>
       </c>
       <c r="G4" t="n">
-        <v>4.42578137482078</v>
+        <v>0.2388177775739376</v>
       </c>
       <c r="H4" t="n">
-        <v>4.144685731158121</v>
+        <v>0.9875435808862066</v>
       </c>
       <c r="I4" t="n">
-        <v>4.293501406000176</v>
+        <v>0.5911593360455762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_3</t>
+          <t>model_2_8_24</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9859025063499224</v>
+        <v>0.9849063877888722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9419227927125795</v>
+        <v>0.9849033250704754</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9720818767843284</v>
+        <v>0.869570277643789</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9676868704545672</v>
+        <v>0.9495544357999471</v>
       </c>
       <c r="F5" t="n">
-        <v>1.700161931454776</v>
+        <v>1.820294126492413</v>
       </c>
       <c r="G5" t="n">
-        <v>4.619063565093716</v>
+        <v>2.301572586314831</v>
       </c>
       <c r="H5" t="n">
-        <v>3.999994413179132</v>
+        <v>10.04106143051149</v>
       </c>
       <c r="I5" t="n">
-        <v>4.327737494954793</v>
+        <v>5.943684353897952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_4</t>
+          <t>model_2_8_23</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9864018526750354</v>
+        <v>0.9851506795086122</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9395103605808948</v>
+        <v>0.9852343102845326</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9729323492671152</v>
+        <v>0.8718521992748797</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9673566095031751</v>
+        <v>0.9504828234309309</v>
       </c>
       <c r="F6" t="n">
-        <v>1.639940615975461</v>
+        <v>1.790832472358644</v>
       </c>
       <c r="G6" t="n">
-        <v>4.810931905242708</v>
+        <v>2.251112037968547</v>
       </c>
       <c r="H6" t="n">
-        <v>3.878142197203513</v>
+        <v>9.865388931456271</v>
       </c>
       <c r="I6" t="n">
-        <v>4.371969753561912</v>
+        <v>5.834298263681021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_5</t>
+          <t>model_2_8_22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.986768252666413</v>
+        <v>0.9854148023075233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9371557047121574</v>
+        <v>0.9855966588998485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9736500218896447</v>
+        <v>0.8743617407183384</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9669775962538223</v>
+        <v>0.9515026582332878</v>
       </c>
       <c r="F7" t="n">
-        <v>1.595752667926829</v>
+        <v>1.758979184172533</v>
       </c>
       <c r="G7" t="n">
-        <v>4.998205116879634</v>
+        <v>2.195869963565173</v>
       </c>
       <c r="H7" t="n">
-        <v>3.775317001597315</v>
+        <v>9.672193244606882</v>
       </c>
       <c r="I7" t="n">
-        <v>4.422731467867634</v>
+        <v>5.714137526965085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_24</t>
+          <t>model_2_8_21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9869466443898877</v>
+        <v>0.9856993042943372</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9129435982325489</v>
+        <v>0.9859925301719603</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9776782170731063</v>
+        <v>0.8771188280219026</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9613936253114267</v>
+        <v>0.952621531184993</v>
       </c>
       <c r="F8" t="n">
-        <v>1.574238572963105</v>
+        <v>1.724668159857822</v>
       </c>
       <c r="G8" t="n">
-        <v>6.923870349380453</v>
+        <v>2.135517172513132</v>
       </c>
       <c r="H8" t="n">
-        <v>3.198173684886227</v>
+        <v>9.45994037398615</v>
       </c>
       <c r="I8" t="n">
-        <v>5.170599618000407</v>
+        <v>5.582307746438165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_23</t>
+          <t>model_2_8_20</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9869836421038848</v>
+        <v>0.9860043360477887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9134512415738451</v>
+        <v>0.9864242348283947</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9776318762980116</v>
+        <v>0.8801428860467967</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9615298686534255</v>
+        <v>0.9538470964536024</v>
       </c>
       <c r="F9" t="n">
-        <v>1.569776637639698</v>
+        <v>1.687881239574285</v>
       </c>
       <c r="G9" t="n">
-        <v>6.883495872518318</v>
+        <v>2.069701381468268</v>
       </c>
       <c r="H9" t="n">
-        <v>3.20481320144861</v>
+        <v>9.227134907188749</v>
       </c>
       <c r="I9" t="n">
-        <v>5.152352378321026</v>
+        <v>5.437907079556405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_22</t>
+          <t>model_2_8_19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.987023063437651</v>
+        <v>0.986329581965286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9140115046770486</v>
+        <v>0.9868937304496058</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9775792036838084</v>
+        <v>0.88345463149779</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9616795375879915</v>
+        <v>0.9551870535539433</v>
       </c>
       <c r="F10" t="n">
-        <v>1.565022413050559</v>
+        <v>1.648656485088447</v>
       </c>
       <c r="G10" t="n">
-        <v>6.838936379943777</v>
+        <v>1.998124146334127</v>
       </c>
       <c r="H10" t="n">
-        <v>3.212359917999466</v>
+        <v>8.972181979934756</v>
       </c>
       <c r="I10" t="n">
-        <v>5.13230703238694</v>
+        <v>5.280028340791453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_6</t>
+          <t>model_2_8_18</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9870308554256988</v>
+        <v>0.9866740511495466</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9348882463449636</v>
+        <v>0.98740305277367</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9742570247584216</v>
+        <v>0.887074553450207</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9665703413186446</v>
+        <v>0.9566489405741599</v>
       </c>
       <c r="F11" t="n">
-        <v>1.56408269697208</v>
+        <v>1.607113398907581</v>
       </c>
       <c r="G11" t="n">
-        <v>5.178543236056727</v>
+        <v>1.920475107447311</v>
       </c>
       <c r="H11" t="n">
-        <v>3.688348115288788</v>
+        <v>8.6935042518736</v>
       </c>
       <c r="I11" t="n">
-        <v>4.477275626163889</v>
+        <v>5.107783364508309</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_21</t>
+          <t>model_2_8_3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9870648545387638</v>
+        <v>0.9867732685939844</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9146297425847215</v>
+        <v>0.9981450584133535</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9775196601089612</v>
+        <v>0.9807272884942881</v>
       </c>
       <c r="E12" t="n">
-        <v>0.961843918710347</v>
+        <v>0.992803430701472</v>
       </c>
       <c r="F12" t="n">
-        <v>1.559982393813858</v>
+        <v>1.595147745568317</v>
       </c>
       <c r="G12" t="n">
-        <v>6.789765968223406</v>
+        <v>0.2827962266506355</v>
       </c>
       <c r="H12" t="n">
-        <v>3.220891077665522</v>
+        <v>1.48369924174851</v>
       </c>
       <c r="I12" t="n">
-        <v>5.110291264905165</v>
+        <v>0.8479266119766844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_20</t>
+          <t>model_2_8_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9871087983945469</v>
+        <v>0.9870360300214651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9153114219352246</v>
+        <v>0.9879538110796091</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9774520026157308</v>
+        <v>0.8910233508682848</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9620241723847903</v>
+        <v>0.9582403793217309</v>
       </c>
       <c r="F13" t="n">
-        <v>1.554682751722994</v>
+        <v>1.563458639182026</v>
       </c>
       <c r="G13" t="n">
-        <v>6.735549858357741</v>
+        <v>1.836508921214091</v>
       </c>
       <c r="H13" t="n">
-        <v>3.230584766343671</v>
+        <v>8.389508224470607</v>
       </c>
       <c r="I13" t="n">
-        <v>5.086149666846861</v>
+        <v>4.920274120948014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_19</t>
+          <t>model_2_8_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9871544886097345</v>
+        <v>0.987412579787314</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9160619456058595</v>
+        <v>0.9885471631385961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9773751135882005</v>
+        <v>0.8953201832777267</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9622213280932035</v>
+        <v>0.9599680239019068</v>
       </c>
       <c r="F14" t="n">
-        <v>1.549172498167985</v>
+        <v>1.518046625310262</v>
       </c>
       <c r="G14" t="n">
-        <v>6.67585834246557</v>
+        <v>1.746049078939344</v>
       </c>
       <c r="H14" t="n">
-        <v>3.241601111467603</v>
+        <v>8.058718912031622</v>
       </c>
       <c r="I14" t="n">
-        <v>5.059744358427439</v>
+        <v>4.716716598634134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_18</t>
+          <t>model_2_8_15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9872014423066071</v>
+        <v>0.9877994077921818</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9168876993466676</v>
+        <v>0.9891837751803197</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9772872042204965</v>
+        <v>0.8999830868213636</v>
       </c>
       <c r="E15" t="n">
-        <v>0.962436708555625</v>
+        <v>0.9618378708377556</v>
       </c>
       <c r="F15" t="n">
-        <v>1.543509868345607</v>
+        <v>1.471395052752667</v>
       </c>
       <c r="G15" t="n">
-        <v>6.610183541695109</v>
+        <v>1.648994010178247</v>
       </c>
       <c r="H15" t="n">
-        <v>3.254196405820508</v>
+        <v>7.69974781188361</v>
       </c>
       <c r="I15" t="n">
-        <v>5.030898186112509</v>
+        <v>4.496404264873436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_7</t>
+          <t>model_2_8_4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9872128590894539</v>
+        <v>0.9881365983889044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9327273939492354</v>
+        <v>0.9976550481352612</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9747718526541367</v>
+        <v>0.9736217572252758</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9661501970295674</v>
+        <v>0.9902829723762228</v>
       </c>
       <c r="F16" t="n">
-        <v>1.542133000935147</v>
+        <v>1.43072976639595</v>
       </c>
       <c r="G16" t="n">
-        <v>5.350402645915358</v>
+        <v>0.3575010360430797</v>
       </c>
       <c r="H16" t="n">
-        <v>3.614585681807818</v>
+        <v>2.030714712453264</v>
       </c>
       <c r="I16" t="n">
-        <v>4.533546071605409</v>
+        <v>1.144896404068338</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_17</t>
+          <t>model_2_8_14</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9872488775814371</v>
+        <v>0.9881903151060153</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9177948146498121</v>
+        <v>0.9898634247606642</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9771868519646791</v>
+        <v>0.9050267253883917</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9626713899027285</v>
+        <v>0.9638542102746335</v>
       </c>
       <c r="F17" t="n">
-        <v>1.53778916007817</v>
+        <v>1.424251514319275</v>
       </c>
       <c r="G17" t="n">
-        <v>6.538037799125955</v>
+        <v>1.545377627781211</v>
       </c>
       <c r="H17" t="n">
-        <v>3.268574466248082</v>
+        <v>7.31146603247052</v>
       </c>
       <c r="I17" t="n">
-        <v>4.999467022386986</v>
+        <v>4.258831638753308</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_16</t>
+          <t>model_2_8_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9872957518050799</v>
+        <v>0.9885768238697205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9187901820514665</v>
+        <v>0.9905848553337639</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9770719953035962</v>
+        <v>0.9104623483037559</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9629265063085011</v>
+        <v>0.9660197284585795</v>
       </c>
       <c r="F18" t="n">
-        <v>1.532136114750962</v>
+        <v>1.377638442340931</v>
       </c>
       <c r="G18" t="n">
-        <v>6.458873088672328</v>
+        <v>1.435391499198141</v>
       </c>
       <c r="H18" t="n">
-        <v>3.28503065848918</v>
+        <v>6.893007550613069</v>
       </c>
       <c r="I18" t="n">
-        <v>4.965298965922895</v>
+        <v>4.003682216755402</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_8</t>
+          <t>model_2_8_12</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9873326583336425</v>
+        <v>0.9889473421046625</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9306856234159956</v>
+        <v>0.9913453313798886</v>
       </c>
       <c r="D19" t="n">
-        <v>0.975209488121364</v>
+        <v>0.9162940131616436</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9657285956606022</v>
+        <v>0.9683337880138346</v>
       </c>
       <c r="F19" t="n">
-        <v>1.527685176418113</v>
+        <v>1.332953832892301</v>
       </c>
       <c r="G19" t="n">
-        <v>5.512791099473333</v>
+        <v>1.319452669722084</v>
       </c>
       <c r="H19" t="n">
-        <v>3.551883063498019</v>
+        <v>6.444059994623601</v>
       </c>
       <c r="I19" t="n">
-        <v>4.590011665562479</v>
+        <v>3.731031096866782</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_15</t>
+          <t>model_2_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9873405859368564</v>
+        <v>0.9890335081339107</v>
       </c>
       <c r="C20" t="n">
-        <v>0.919880431757887</v>
+        <v>0.9970195699733885</v>
       </c>
       <c r="D20" t="n">
-        <v>0.976940019993966</v>
+        <v>0.9661329655034008</v>
       </c>
       <c r="E20" t="n">
-        <v>0.963202824834228</v>
+        <v>0.9875450392125561</v>
       </c>
       <c r="F20" t="n">
-        <v>1.526729105110224</v>
+        <v>1.322562184110717</v>
       </c>
       <c r="G20" t="n">
-        <v>6.372162089108264</v>
+        <v>0.4543832384747895</v>
       </c>
       <c r="H20" t="n">
-        <v>3.303939540620006</v>
+        <v>2.607235281241179</v>
       </c>
       <c r="I20" t="n">
-        <v>4.928291283251436</v>
+        <v>1.467489892018395</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_14</t>
+          <t>model_2_8_11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9873814286819839</v>
+        <v>0.9892865747048025</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9210720326455402</v>
+        <v>0.9921404287675534</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9767881776883284</v>
+        <v>0.9225190941012169</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9635009877062336</v>
+        <v>0.9707925010006683</v>
       </c>
       <c r="F21" t="n">
-        <v>1.521803457887712</v>
+        <v>1.292042280315483</v>
       </c>
       <c r="G21" t="n">
-        <v>6.277390310275087</v>
+        <v>1.198235622958957</v>
       </c>
       <c r="H21" t="n">
-        <v>3.325694884614392</v>
+        <v>5.964825514974458</v>
       </c>
       <c r="I21" t="n">
-        <v>4.888357960204905</v>
+        <v>3.441336370634467</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_9</t>
+          <t>model_2_8_6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9874049522232061</v>
+        <v>0.9895699951163887</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9287697907326264</v>
+        <v>0.9962840609876819</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9755826232792191</v>
+        <v>0.9584823059400455</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9653141385823374</v>
+        <v>0.9846888137836446</v>
       </c>
       <c r="F22" t="n">
-        <v>1.518966511812626</v>
+        <v>1.257861694295267</v>
       </c>
       <c r="G22" t="n">
-        <v>5.665163318419244</v>
+        <v>0.5665156998540896</v>
       </c>
       <c r="H22" t="n">
-        <v>3.498421785486929</v>
+        <v>3.196217158008341</v>
       </c>
       <c r="I22" t="n">
-        <v>4.645520415810097</v>
+        <v>1.804021015462724</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_13</t>
+          <t>model_2_8_10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.987415809671059</v>
+        <v>0.9895744836232155</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9223723237465274</v>
+        <v>0.9929633593387591</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9766130909332287</v>
+        <v>0.9291236967414739</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9638216255887468</v>
+        <v>0.9733869681524723</v>
       </c>
       <c r="F23" t="n">
-        <v>1.517657100368968</v>
+        <v>1.257320379035583</v>
       </c>
       <c r="G23" t="n">
-        <v>6.173974055790571</v>
+        <v>1.07277525158782</v>
       </c>
       <c r="H23" t="n">
-        <v>3.350780598177943</v>
+        <v>5.456373763050747</v>
       </c>
       <c r="I23" t="n">
-        <v>4.845414531141365</v>
+        <v>3.135646582812377</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_12</t>
+          <t>model_2_8_9</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9874403224462709</v>
+        <v>0.9897850421973394</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9237873459885249</v>
+        <v>0.99380449419859</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9764103178793146</v>
+        <v>0.9360800608667462</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9641644006739345</v>
+        <v>0.9761021150600636</v>
       </c>
       <c r="F24" t="n">
-        <v>1.514700852380216</v>
+        <v>1.231926952306512</v>
       </c>
       <c r="G24" t="n">
-        <v>6.061432871613779</v>
+        <v>0.9445395345297403</v>
       </c>
       <c r="H24" t="n">
-        <v>3.379833091303416</v>
+        <v>4.920841843998556</v>
       </c>
       <c r="I24" t="n">
-        <v>4.799506239082636</v>
+        <v>2.815737856463588</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_10</t>
+          <t>model_2_8_7</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9874412341142799</v>
+        <v>0.9898310852833329</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9269819927276296</v>
+        <v>0.9954848334146408</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9759017270522131</v>
+        <v>0.950841747230103</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9649127207902463</v>
+        <v>0.9817920262340463</v>
       </c>
       <c r="F25" t="n">
-        <v>1.514590904946908</v>
+        <v>1.226374142427268</v>
       </c>
       <c r="G25" t="n">
-        <v>5.807352535365577</v>
+        <v>0.6883624164937069</v>
       </c>
       <c r="H25" t="n">
-        <v>3.452701903124485</v>
+        <v>3.784421426054221</v>
       </c>
       <c r="I25" t="n">
-        <v>4.699282798297128</v>
+        <v>2.145331319116657</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_11</t>
+          <t>model_2_8_8</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9874506379342071</v>
+        <v>0.9898847843448165</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9253221868973501</v>
+        <v>0.9946507971294917</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9761751728166425</v>
+        <v>0.9433423501551944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9645285774263974</v>
+        <v>0.9789148069245747</v>
       </c>
       <c r="F26" t="n">
-        <v>1.513456801463883</v>
+        <v>1.219898019624474</v>
       </c>
       <c r="G26" t="n">
-        <v>5.939362130762131</v>
+        <v>0.8155159161121485</v>
       </c>
       <c r="H26" t="n">
-        <v>3.413523713330889</v>
+        <v>4.361758442193086</v>
       </c>
       <c r="I26" t="n">
-        <v>4.750731595196519</v>
+        <v>2.484336019799967</v>
       </c>
     </row>
   </sheetData>
